--- a/biology/Botanique/Fétuque/Fétuque.xlsx
+++ b/biology/Botanique/Fétuque/Fétuque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9tuque</t>
+          <t>Fétuque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Festuca
 Festuca (fétuque) est un genre de plantes monocotylédones de la famille des Poaceae (graminées), dont plusieurs espèces sont cultivées comme plantes fourragères.
-Ce genre comprend un grand nombre d'espèces, cependant comme la taxinomie est complexe, le nombre d'espèces véritablement rattachées au genre est incertain. Les estimations vont de plus de 400[1] à plus de 500[2],[3].
+Ce genre comprend un grand nombre d'espèces, cependant comme la taxinomie est complexe, le nombre d'espèces véritablement rattachées au genre est incertain. Les estimations vont de plus de 400 à plus de 500,.
 Beaucoup de ces espèces sont intéressantes au point de vue fourrager ; quelques-unes d'entre elles, comme Festuca arundinacea, Festuca pratensis, Festuca rubra, sont même de première importance.
 Certaines espèces, à feuilles très fines, telles que Festuca rubra, Festuca tenuifolia, Festuca ovina etc., sont aussi cultivées pour constituer des pelouses ou des terrains de sport,
-D'autres, comme Festuca arundinacea, Festuca ovina, Festuca rubra, Festuca tenuifolia, sont des mauvaises herbes des cultures[4]. 
-Le  pollen des fétuques contribue beaucoup au rhume des foins[5].
+D'autres, comme Festuca arundinacea, Festuca ovina, Festuca rubra, Festuca tenuifolia, sont des mauvaises herbes des cultures. 
+Le  pollen des fétuques contribue beaucoup au rhume des foins.
 </t>
         </is>
       </c>
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9tuque</t>
+          <t>Fétuque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les caractères botaniques des Fétuques reposent sur la forme des glumes, qui sont carénées ; sur l'absence presque complète de barbes et sur la forme oblongue de la graine.
 Les fétuques ont des inflorescences en panicule rameuse, dans quelques rares cas la panicule peut être spiciforme. Plusieurs espèces présentent des panicules à rameaux géminés inégaux.
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9tuque</t>
+          <t>Fétuque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,15 +569,123 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Festuca est très proche du genre Lolium (ray-grass). Des études  phylogénétiques utilisant le  séquençage de  l'ADN  mitochondrial ont montré que ce genre n'est pas monophylétique. Cela a conduit des taxinomistes à transférer plusieurs espèces, dont des graminées fourragères comme la fétuque élevée et la fétuque des prés, du genre Festuca vers le genre Lolium[6]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Festuca est très proche du genre Lolium (ray-grass). Des études  phylogénétiques utilisant le  séquençage de  l'ADN  mitochondrial ont montré que ce genre n'est pas monophylétique. Cela a conduit des taxinomistes à transférer plusieurs espèces, dont des graminées fourragères comme la fétuque élevée et la fétuque des prés, du genre Festuca vers le genre Lolium. 
 En outre il existe différentes espèces d'hybrides Festuca X Lolium denommés ×Festulolium.
-Étymologie
-Le nom du genre vient du latin festuca désignant le fétu de paille[7].
-Complexité
-« Décrit depuis Linné, le genre Festuca a souvent la réputation d'être d'une approche difficile. Tous les auteurs ne délimitent pas ce genre de la même façon. Il fait régulièrement l'objet de diverses restructurations en même temps que de nouveaux critères distinctifs apparaissent. Toutefois, la description précise retenue par WATSON &amp; DALLWITZ (1992)[8] dans leur monographie des genres mondiaux de Gramineae coïncide avec la structure du genre Festuca qui domine le XXe siècle en Europe de l'ouest[9] ».
-Principales espèces
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fétuque</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9tuque</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre vient du latin festuca désignant le fétu de paille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fétuque</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9tuque</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Complexité</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Décrit depuis Linné, le genre Festuca a souvent la réputation d'être d'une approche difficile. Tous les auteurs ne délimitent pas ce genre de la même façon. Il fait régulièrement l'objet de diverses restructurations en même temps que de nouveaux critères distinctifs apparaissent. Toutefois, la description précise retenue par WATSON &amp; DALLWITZ (1992) dans leur monographie des genres mondiaux de Gramineae coïncide avec la structure du genre Festuca qui domine le XXe siècle en Europe de l'ouest ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fétuque</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9tuque</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Festuca abyssinica Hochst. ex A.Rich.
 Festuca actae Connor
 Festuca alpina Suter, la fétuque alpine
